--- a/biology/Médecine/Stephen_Worobetz/Stephen_Worobetz.xlsx
+++ b/biology/Médecine/Stephen_Worobetz/Stephen_Worobetz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Worobetz, 26 décembre 1914 – 2 février 2006, personnalité politique canadienne, fut Lieutenant-gouverneur de la province de la Saskatchewan de 1970 à 1976.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né d' immigrants ukrainiens , Worobetz a étudié la médecine à l' Université de la Saskatchewan à Saskatoon et à l' Université du Manitoba à Winnipeg . Pendant la Seconde Guerre mondiale , il a été officier médical de l'armée canadienne en Italie et a été récompensé pour son courage au front avec la croix militaire . Après la guerre, il a travaillé comme médecin de famille à Saskatoon et a opéré à Winnipeg et à Philadelphie après des études post-diplôme en chirurgie.
 Le 2 février 1970, le gouverneur général Roland Michener assermenta Worobetz à titre de sous-gouverneur de la Saskatchewan. Il a occupé cette fonction jusqu’au 29 février 1976. Il a ensuite travaillé jusqu'à sa retraite en 1982 en tant que médecin. En 1993, il a reçu un doctorat honorifique de l'Université de la Saskatchewan et de l' Ordre du Canada , et en 1999, l' Ordre du mérite de la Saskatchewan.
